--- a/data/trans_orig/P16B04-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16B04-Clase-trans_orig.xlsx
@@ -2435,7 +2435,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -5078,7 +5078,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -7721,7 +7721,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
